--- a/biology/Botanique/Buesia/Buesia.xlsx
+++ b/biology/Botanique/Buesia/Buesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buesia est un genre obsolète de la famille des Hyménophyllacées, mais aussi un sous-genre et une section issus des différentes révisions de la famille. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale caractéristique du genre est la présence d'ailes secondaires non situées dans le plan général de la fronde.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La liste des espèces est issue de l'index IPNI - The international plant names index à la date de mai 2012 :
 Buesia cristata (Hook. &amp; Grev.) Copel. (1941) : voir Hymenophyllum cristatum Hook. &amp; Grev.
@@ -577,12 +593,14 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conrad Vernon Morton crée, en 1932, un sous-genre du genre Hymenophyllum : Hymenophyllum subgen Buesia[1]. L'espèce type choisie est Hymenophyllum mirificum C.V.Morton.
-En 1938, Edwin Bingham Copeland en fait un genre à part entière avec comme espèce type Buesia mirifica (C.V.Morton) Copel. et deux autres espèces Buesia jamesonii et Buesia sodiroi[2]. En 1941, il y ajoute deux espèces : Buesia cristata et Buesia megistocarpa (espèce nouvelle).
-En 1968, Conrad Vernon Morton reprend le nom Buesia pour un faire une section du sous-genre Hymenophyllum du genre Hymenophyllum[3].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito placent les cinq espèces qui ont été placées dans ce genre dans le genre Hymenophyllum, sous-genre Hymenophyllum[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conrad Vernon Morton crée, en 1932, un sous-genre du genre Hymenophyllum : Hymenophyllum subgen Buesia. L'espèce type choisie est Hymenophyllum mirificum C.V.Morton.
+En 1938, Edwin Bingham Copeland en fait un genre à part entière avec comme espèce type Buesia mirifica (C.V.Morton) Copel. et deux autres espèces Buesia jamesonii et Buesia sodiroi. En 1941, il y ajoute deux espèces : Buesia cristata et Buesia megistocarpa (espèce nouvelle).
+En 1968, Conrad Vernon Morton reprend le nom Buesia pour un faire une section du sous-genre Hymenophyllum du genre Hymenophyllum.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito placent les cinq espèces qui ont été placées dans ce genre dans le genre Hymenophyllum, sous-genre Hymenophyllum.
 En tant que genre, il est donc synonyme actuellement de Hymenophyllum subgen. Hymenophyllum.
 </t>
         </is>
